--- a/Manual Project.xlsx
+++ b/Manual Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhanush B\Documents\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F00C8-737C-420E-89B6-6E529E7C0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC8C133-F460-403D-8539-1D35CCA7B26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD1EC640-F998-457C-A21C-491A3B9E4506}"/>
   </bookViews>
@@ -1632,7 +1632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1711,16 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3770,182 +3760,182 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" t="s">
         <v>342</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" t="s">
         <v>343</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" t="s">
         <v>346</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" t="s">
         <v>347</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" t="s">
         <v>334</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" t="s">
         <v>349</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" t="s">
         <v>343</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" t="s">
         <v>350</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" t="s">
         <v>346</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" t="s">
         <v>347</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" t="s">
         <v>337</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" t="s">
         <v>346</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" t="s">
         <v>354</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" t="s">
         <v>353</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" t="s">
         <v>347</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" t="s">
         <v>352</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" t="s">
         <v>353</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" t="s">
         <v>344</v>
       </c>
     </row>
